--- a/public/samples/source_import_sample.xlsx
+++ b/public/samples/source_import_sample.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llima/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llima/code/pdm/Emb3rs-Project/platform/public/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8469A72B-79CB-3146-A0E1-5A9F55C8D58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCED00-95C4-EC43-9826-2E835BDA8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" xr2:uid="{403895F0-D80C-CF41-9B60-8A35C88DDC42}"/>
+    <workbookView xWindow="5580" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{E0F0B471-E22A-A842-B862-9C74F593953D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,57 +35,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
-  <si>
-    <t>Source_ID</t>
-  </si>
-  <si>
-    <t>Source Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Stream ID</t>
-  </si>
-  <si>
-    <t>Consumer Type</t>
-  </si>
-  <si>
-    <t>Fluid</t>
-  </si>
-  <si>
-    <t>Supply Temperature</t>
-  </si>
-  <si>
-    <t>Target Temperature</t>
-  </si>
-  <si>
-    <t>Mass Flowrate</t>
-  </si>
-  <si>
-    <t>Fluid cp</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Shutdown Periods</t>
-  </si>
-  <si>
-    <t>Daily Periods</t>
-  </si>
-  <si>
-    <t>Saturday On</t>
-  </si>
-  <si>
-    <t>Sunday On</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
+  <si>
+    <t>supply_temperature</t>
+  </si>
+  <si>
+    <t>renewal_air_per_person</t>
+  </si>
+  <si>
+    <t>saturday_on</t>
+  </si>
+  <si>
+    <t>sunday_on</t>
+  </si>
+  <si>
+    <t>shutdown_periods</t>
+  </si>
+  <si>
+    <t>daily_periods</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>supply_capacity</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>number_floor</t>
+  </si>
+  <si>
+    <t>width_floor</t>
+  </si>
+  <si>
+    <t>length_floor</t>
+  </si>
+  <si>
+    <t>height_floor</t>
+  </si>
+  <si>
+    <t>ratio_wall_N</t>
+  </si>
+  <si>
+    <t>ratio_wall_S</t>
+  </si>
+  <si>
+    <t>ratio_wall_E</t>
+  </si>
+  <si>
+    <t>ratio_wall_W</t>
+  </si>
+  <si>
+    <t>building_type</t>
+  </si>
+  <si>
+    <t>number_person_per_floor</t>
+  </si>
+  <si>
+    <t>number_rooms</t>
+  </si>
+  <si>
+    <t>space_heating_type</t>
+  </si>
+  <si>
+    <t>building_orientation</t>
+  </si>
+  <si>
+    <t>supply_temperature_heat</t>
+  </si>
+  <si>
+    <t>target_temperature_heat</t>
+  </si>
+  <si>
+    <t>supply_temperature_cool</t>
+  </si>
+  <si>
+    <t>target_temperature_cool</t>
+  </si>
+  <si>
+    <t>T_cool_on</t>
+  </si>
+  <si>
+    <t>T_heat_on</t>
+  </si>
+  <si>
+    <t>T_off_min</t>
+  </si>
+  <si>
+    <t>T_off_max</t>
+  </si>
+  <si>
+    <t>tau_glass</t>
+  </si>
+  <si>
+    <t>alpha_wall</t>
+  </si>
+  <si>
+    <t>alpha_floor</t>
+  </si>
+  <si>
+    <t>alpha_glass</t>
+  </si>
+  <si>
+    <t>u_wall</t>
+  </si>
+  <si>
+    <t>u_roof</t>
+  </si>
+  <si>
+    <t>u_floor</t>
+  </si>
+  <si>
+    <t>u_glass</t>
+  </si>
+  <si>
+    <t>cp_roof</t>
+  </si>
+  <si>
+    <t>cp_wall</t>
+  </si>
+  <si>
+    <t>air_change_hour</t>
+  </si>
+  <si>
+    <t>vol_dhw_set</t>
+  </si>
+  <si>
+    <t>Q_gain_per_floor</t>
+  </si>
+  <si>
+    <t>emissivity_wall</t>
+  </si>
+  <si>
+    <t>emissivity_glass</t>
+  </si>
+  <si>
+    <t>consumer_type</t>
+  </si>
+  <si>
+    <t>burner_equipment_sub_type</t>
+  </si>
+  <si>
+    <t>burner_excess_heat_target_temperature</t>
+  </si>
+  <si>
+    <t>burner_excess_heat_flowrate</t>
+  </si>
+  <si>
+    <t>global_conversion_efficiency</t>
+  </si>
+  <si>
+    <t>thermal_blanket</t>
+  </si>
+  <si>
+    <t>cooling_equipment_sub_type</t>
+  </si>
+  <si>
+    <t>hourly_profile</t>
+  </si>
+  <si>
+    <t>max_capacity</t>
+  </si>
+  <si>
+    <t>levelized_co2_emissions</t>
+  </si>
+  <si>
+    <t>levelized_om_var</t>
+  </si>
+  <si>
+    <t>levelized_om_fix</t>
+  </si>
+  <si>
+    <t>greenhouse_orientation</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>artificial_lights_system</t>
+  </si>
+  <si>
+    <t>greenhouse_efficiency</t>
+  </si>
+  <si>
+    <t>hours_lights_needed</t>
+  </si>
+  <si>
+    <t>leaf_area_index</t>
+  </si>
+  <si>
+    <t>rh_air</t>
+  </si>
+  <si>
+    <t>u_cover</t>
+  </si>
+  <si>
+    <t>indoor_air_speed</t>
+  </si>
+  <si>
+    <t>leaf_length</t>
+  </si>
+  <si>
+    <t>tau_cover_long_wave_radiation</t>
+  </si>
+  <si>
+    <t>emissivity_cover_long_wave_radiation</t>
+  </si>
+  <si>
+    <t>tau_cover_solar_radiation</t>
+  </si>
+  <si>
+    <t>power_lights</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>flowrate</t>
+  </si>
+  <si>
+    <t>maintenance_capacity</t>
+  </si>
+  <si>
+    <t>target_temperature</t>
+  </si>
+  <si>
+    <t>operation_temperature</t>
+  </si>
+  <si>
+    <t>schedule_type</t>
+  </si>
+  <si>
+    <t>cycle_time_percentage</t>
+  </si>
+  <si>
+    <t>equipment_id</t>
+  </si>
+  <si>
+    <t>fluid_cp</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>hourly_generation</t>
+  </si>
+  <si>
+    <t>initial_temperature</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>orc_t_evap</t>
+  </si>
+  <si>
+    <t>orc_t_cond</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>non-household</t>
+  </si>
+  <si>
+    <t>[[244,300]]</t>
+  </si>
+  <si>
+    <t>[[210,240]]</t>
+  </si>
+  <si>
+    <t>[[0,24]]</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>Simple Source</t>
@@ -94,43 +334,22 @@
     <t>BIOPAR</t>
   </si>
   <si>
-    <t>non-household</t>
+    <t>Polysan</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>Halibourgia</t>
   </si>
   <si>
     <t xml:space="preserve">flue gas </t>
   </si>
   <si>
-    <t>[[274,300],[335,365]]</t>
-  </si>
-  <si>
-    <t>[[0,24]]</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Polysan</t>
-  </si>
-  <si>
     <t>hot water</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>CAO</t>
-  </si>
-  <si>
-    <t>[[182,240]]</t>
-  </si>
-  <si>
     <t>[[6,21]]</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Halibourgia</t>
   </si>
   <si>
     <t>[[0,6],[22,24]]</t>
@@ -140,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,55 +367,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -204,63 +384,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,279 +703,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2154C2-50DD-E541-8DDF-CF76091F6D1F}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3F970-3C1B-2540-B227-1EA2ED2AEFD4}">
+  <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
         <v>39.397221999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C2">
         <v>22.804167</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2">
         <v>220</v>
       </c>
-      <c r="J2" s="4">
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB2">
         <v>120</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="CH2">
         <v>438</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
         <v>39.393056000000001</v>
       </c>
-      <c r="E3" s="8">
+      <c r="C3">
         <v>22.803611</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="J3" s="7">
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB3">
         <v>60</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7">
+      <c r="CH3">
         <v>279</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
         <v>39.398611000000002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="C4">
         <v>22.804444</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>140</v>
       </c>
-      <c r="J4" s="4">
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB4">
         <v>120</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="CH4">
         <v>73</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
         <v>39.385556000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="C5">
         <v>22.806944000000001</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5">
         <v>900</v>
       </c>
-      <c r="J5" s="7">
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB5">
         <v>500</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
+      <c r="CH5">
         <v>2741</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="P2:Q5" xr:uid="{B6E05167-6F93-5243-A294-E106EE03ABBC}">
-      <formula1>"yes, no"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce a name for the stream" sqref="H2:H5" xr:uid="{660B3073-B815-934F-BE16-EF4334C30A06}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stream ID" prompt="The same Source ID can have multiple streams. For each Source ID, the Stream ID must start in 1; e.g Source ID: 1 - Stream ID: 1 and Stream ID: 2; Source 2 - Stream ID:1" sqref="F2:F5" xr:uid="{481C0FC2-2929-5E45-A63A-E92D5791C109}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source ID" prompt="Introduce the Source ID according to &quot;CF - Sources Data&quot;" sqref="A2:B5" xr:uid="{0FF60692-B580-8246-A53F-E4F6F850440E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Daily Periods Input" prompt="Daily hourly periods stream/building is available/occupied. (e.g. [[0,12]] or [[9,12],[17,23]]). Pay attention to the brackets when introducing periods" sqref="O2:O5" xr:uid="{A3A68FB1-69B1-8C40-8634-5630479CDB55}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shutdown Periods" prompt="Periods of days during the year the stream/building is not available/occupied. (e.g. [], [[1,12]] or [[200,231],[330,360]]. Pay attention to the brackets when introducing periods." sqref="N2:N5" xr:uid="{808007A7-88E0-054B-B8D5-F818CDD891D2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Stream target/final temperature" sqref="J1:J5" xr:uid="{F0B635FE-063C-9D40-B533-8641C2F09A6B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Stream supply/initial temperature" sqref="I1:I5" xr:uid="{F2C53CD6-1610-804A-A8EB-83909AFCFE34}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="IMPORTANT" prompt="Orange columns to consider a similar schedule for all days; Green columns to consider specific schedules for each day." sqref="O1:Q1" xr:uid="{924BF007-A3B5-9244-8AF5-303C6BB43331}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data Input" prompt="Introduce Mass flowrate and Fluid cp, or Capacity.  Never all!" sqref="K1:M5" xr:uid="{76959FAA-260E-ED42-96FA-EED4471B2DA3}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/samples/source_import_sample.xlsx
+++ b/public/samples/source_import_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llima/code/pdm/Emb3rs-Project/platform/public/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCED00-95C4-EC43-9826-2E835BDA8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E94FE56-CE97-7748-A074-1BFF08ED5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{E0F0B471-E22A-A842-B862-9C74F593953D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>supply_temperature</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>[[0,6],[22,24]]</t>
+  </si>
+  <si>
+    <t>ref_system_eff_equipment</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3F970-3C1B-2540-B227-1EA2ED2AEFD4}">
-  <dimension ref="A1:CM5"/>
+  <dimension ref="A1:CN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,9 +726,10 @@
     <col min="49" max="49" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -999,8 +1003,11 @@
       <c r="CM1" t="s">
         <v>87</v>
       </c>
+      <c r="CN1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
